--- a/游戏构思.xlsx
+++ b/游戏构思.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" tabRatio="622" activeTab="7"/>
+    <workbookView windowWidth="28695" windowHeight="13050" tabRatio="622" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="兵" sheetId="10" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="将" sheetId="7" r:id="rId7"/>
     <sheet name="锦囊" sheetId="8" r:id="rId8"/>
     <sheet name="武器" sheetId="13" r:id="rId9"/>
-    <sheet name="地雷" sheetId="9" r:id="rId10"/>
+    <sheet name="陷阱" sheetId="9" r:id="rId10"/>
     <sheet name="关键词" sheetId="14" r:id="rId11"/>
     <sheet name="桥" sheetId="11" r:id="rId12"/>
     <sheet name="船" sheetId="12" r:id="rId13"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239">
   <si>
     <t>兵Soldier</t>
   </si>
@@ -97,10 +97,10 @@
     <t>复仇：将杀死该棋子的锦囊加入你的锦囊袋</t>
   </si>
   <si>
-    <t>地雷对该棋子无效</t>
-  </si>
-  <si>
-    <t>移除所在位置的地雷</t>
+    <t>陷阱对该棋子无效</t>
+  </si>
+  <si>
+    <t>移除所在位置的陷阱</t>
   </si>
   <si>
     <t>复仇：+1金</t>
@@ -112,10 +112,10 @@
     <t>嗜血：+1金</t>
   </si>
   <si>
-    <t>触底时埋下地雷</t>
-  </si>
-  <si>
-    <t>连锁：获得复仇：召唤一个兵</t>
+    <t>触底时埋下陷阱</t>
+  </si>
+  <si>
+    <t>连锁：获得复仇：部署一个兵</t>
   </si>
   <si>
     <t>3费</t>
@@ -133,9 +133,6 @@
     <t>车Chariot/Rook</t>
   </si>
   <si>
-    <t>稀有度</t>
-  </si>
-  <si>
     <t>怪物猎人</t>
   </si>
   <si>
@@ -148,15 +145,15 @@
     <t>复仇：消灭吃掉该车的兵</t>
   </si>
   <si>
+    <t>4费</t>
+  </si>
+  <si>
     <t>牺牲该车，复活两个兵</t>
   </si>
   <si>
     <t>连锁：获得复仇：复活一个兵</t>
   </si>
   <si>
-    <t>2金</t>
-  </si>
-  <si>
     <t>如果当前回合数超过25，获得一个招募号角</t>
   </si>
   <si>
@@ -166,90 +163,99 @@
     <t>连锁：如果你控制任何炮，把该棋子变形为其中一个炮</t>
   </si>
   <si>
+    <t>疯狂炸弹车</t>
+  </si>
+  <si>
+    <t>8费</t>
+  </si>
+  <si>
+    <t>在所有经过路径上放置陷阱</t>
+  </si>
+  <si>
+    <t>马</t>
+  </si>
+  <si>
+    <t>嗜血：复活那个棋子到己方，那个棋子为普通棋子</t>
+  </si>
+  <si>
+    <t>移动到起始位置</t>
+  </si>
+  <si>
+    <t>本轮行动时没有马压脚</t>
+  </si>
+  <si>
+    <t>在本回合结束后变成普通炮</t>
+  </si>
+  <si>
+    <t>宝马</t>
+  </si>
+  <si>
+    <t>连锁：+1金</t>
+  </si>
+  <si>
+    <t>连锁：连锁棋子均变成普通炮</t>
+  </si>
+  <si>
+    <t>骑兵</t>
+  </si>
+  <si>
+    <t>牺牲该棋子，使一个己方兵可以像马一样行动</t>
+  </si>
+  <si>
+    <t>无法被兵消灭</t>
+  </si>
+  <si>
+    <t>连锁：如果连锁的棋子在不同区域，则消灭一个在己方区域的敌方棋子</t>
+  </si>
+  <si>
+    <t>吃掉一个距离该棋子为1的兵</t>
+  </si>
+  <si>
+    <t>炮Cannon</t>
+  </si>
+  <si>
+    <t>可以移动到炮台前任意位置</t>
+  </si>
+  <si>
+    <t>瘸子</t>
+  </si>
+  <si>
+    <t>复仇：埋下地雷</t>
+  </si>
+  <si>
+    <t>复仇：吃掉该棋子的棋子会在3轮后被消灭</t>
+  </si>
+  <si>
+    <t>牺牲两个炮，召唤一个普通车</t>
+  </si>
+  <si>
+    <t>在本回合结束后变成普通马</t>
+  </si>
+  <si>
+    <t>复仇：如果你控制至少两个兵，将其中一个变成炮</t>
+  </si>
+  <si>
+    <t>连锁：连锁的棋子均获得复仇：埋下地雷</t>
+  </si>
+  <si>
+    <t>连锁：消灭炮台前的一个棋子</t>
+  </si>
+  <si>
+    <t>复仇：复活一个2血及以上的兵</t>
+  </si>
+  <si>
+    <t>炮塔</t>
+  </si>
+  <si>
     <t>5费</t>
   </si>
   <si>
-    <t>如果当前回合数超过20，在你的回合结束后，获得一个敌方普通兵的控制权</t>
-  </si>
-  <si>
-    <t>马</t>
-  </si>
-  <si>
-    <t>嗜血：复活那个棋子到己方，那个棋子为普通棋子</t>
-  </si>
-  <si>
-    <t>移动到起始位置</t>
-  </si>
-  <si>
-    <t>本轮行动时没有马压脚</t>
-  </si>
-  <si>
-    <t>在本回合结束后变成普通炮</t>
-  </si>
-  <si>
-    <t>宝马</t>
-  </si>
-  <si>
-    <t>常见</t>
-  </si>
-  <si>
-    <t>连锁：+1金</t>
-  </si>
-  <si>
-    <t>连锁：连锁棋子均变成普通炮</t>
-  </si>
-  <si>
-    <t>牺牲该棋子，使一个己方兵可以像马一样行动</t>
-  </si>
-  <si>
-    <t>无法被兵消灭</t>
-  </si>
-  <si>
-    <t>连锁：如果连锁的棋子在不同区域，则消灭一个在己方区域的敌方棋子</t>
-  </si>
-  <si>
-    <t>吃掉一个距离该棋子为1的兵</t>
-  </si>
-  <si>
-    <t>炮Cannon</t>
-  </si>
-  <si>
-    <t>可以移动到炮台前任意位置</t>
-  </si>
-  <si>
-    <t>复仇：埋下地雷</t>
-  </si>
-  <si>
-    <t>复仇：吃掉该棋子的棋子会在5轮后被消灭</t>
-  </si>
-  <si>
-    <t>牺牲两个炮，召唤一个普通车</t>
-  </si>
-  <si>
-    <t>在本回合结束后变成普通马</t>
-  </si>
-  <si>
-    <t>复仇：如果你控制至少两个兵，将其中一个变成炮</t>
-  </si>
-  <si>
-    <t>连锁：连锁的棋子均获得复仇：埋下地雷</t>
-  </si>
-  <si>
-    <t>连锁：消灭炮台前的一个棋子</t>
-  </si>
-  <si>
-    <t>复仇：复活一个2血及以上的兵</t>
-  </si>
-  <si>
-    <t>消灭炮台前的一个棋子。</t>
+    <t>无法移动。消灭炮台前的一个棋子。</t>
   </si>
   <si>
     <t>象Elephant</t>
   </si>
   <si>
-    <t>4费</t>
-  </si>
-  <si>
     <t>消灭一个距离该棋子为1的棋子</t>
   </si>
   <si>
@@ -259,6 +265,9 @@
     <t>连锁：将在本轮不会被摧毁</t>
   </si>
   <si>
+    <t>主教</t>
+  </si>
+  <si>
     <t>连锁：召唤一个普通士</t>
   </si>
   <si>
@@ -316,9 +325,6 @@
     <t>连锁：你的将在本轮不会被摧毁</t>
   </si>
   <si>
-    <t>8费</t>
-  </si>
-  <si>
     <t>连锁：消灭宫中所有敌方棋子</t>
   </si>
   <si>
@@ -331,7 +337,7 @@
     <t>将General</t>
   </si>
   <si>
-    <t>无</t>
+    <t>秦始皇</t>
   </si>
   <si>
     <t>你的宫扩大</t>
@@ -352,6 +358,9 @@
     <t>将一个棋子变形为标准棋子</t>
   </si>
   <si>
+    <t>萧何</t>
+  </si>
+  <si>
     <t>本局对战+10费</t>
   </si>
   <si>
@@ -382,7 +391,13 @@
     <t>本回合你的将可以使用两次技能</t>
   </si>
   <si>
-    <t>如果你刚好各控制1个车马炮，召唤普通兵直到你的上限</t>
+    <t>如果你刚好各控制1个车马炮，部署普通兵直到你的上限</t>
+  </si>
+  <si>
+    <t>获胜奖杯</t>
+  </si>
+  <si>
+    <t>3金</t>
   </si>
   <si>
     <t>平局视作你胜利。如果你的对手也使用了该锦囊则依然视为平局。</t>
@@ -409,6 +424,9 @@
     <t>将一个棋子变形成标准棋子</t>
   </si>
   <si>
+    <t>28费</t>
+  </si>
+  <si>
     <t>如果当前回合数超过25，你获得一个额外的回合</t>
   </si>
   <si>
@@ -451,7 +469,7 @@
     <t>使一个棋子获得复仇：埋下地雷</t>
   </si>
   <si>
-    <t>3金</t>
+    <t>扫雷</t>
   </si>
   <si>
     <t>移除所有地雷</t>
@@ -532,31 +550,31 @@
     <t>招兵</t>
   </si>
   <si>
-    <t>在你的回合结束时，召唤一个标准兵</t>
+    <t>部署一个标准兵</t>
   </si>
   <si>
     <t>招贤纳士</t>
   </si>
   <si>
-    <t>在你的回合结束时，召唤一个标准士</t>
+    <t>部署一个标准士</t>
   </si>
   <si>
     <t>训象</t>
   </si>
   <si>
-    <t>在你的回合结束时，召唤一个标准象</t>
+    <t>部署一个标准象</t>
   </si>
   <si>
     <t>造炮</t>
   </si>
   <si>
-    <t>在你的回合结束时，召唤一个标准炮</t>
+    <t>部署一个标准炮</t>
   </si>
   <si>
     <t>买马</t>
   </si>
   <si>
-    <t>在你的回合结束时，召唤一个标准马</t>
+    <t>部署一个标准马</t>
   </si>
   <si>
     <t>如果当前回合数超过50，回合数+50</t>
@@ -589,13 +607,13 @@
     <t>使一个敌方棋子在本局对战结束后加入你的阵营</t>
   </si>
   <si>
-    <t>如果当前回合数超过15，消灭一个敌方棋子</t>
+    <t>回合15：消灭一个敌方棋子</t>
   </si>
   <si>
     <t>屈服</t>
   </si>
   <si>
-    <t>如果当前回合数超过20，获得一个敌方棋子的控制权</t>
+    <t>回合20：获得一个敌方棋子的控制权</t>
   </si>
   <si>
     <t>叛变</t>
@@ -604,7 +622,7 @@
     <t>10费</t>
   </si>
   <si>
-    <t>如果当前回合数超过10：获得一个敌方棋子的控制权，他会成为你的同盟</t>
+    <t>回合15：获得一个敌方棋子的控制权，他会成为你的同盟</t>
   </si>
   <si>
     <t>复活两个兵</t>
@@ -646,16 +664,22 @@
     <t>隐藏你的宫4回合</t>
   </si>
   <si>
-    <t>选择一个空的格子，标记一个旗帜</t>
+    <t>插旗</t>
+  </si>
+  <si>
+    <t>标记一个旗帜</t>
   </si>
   <si>
     <t>移除所有旗帜</t>
   </si>
   <si>
+    <t>如果下回合你的对手超过1分钟没有行动，你获得5费</t>
+  </si>
+  <si>
     <t>武器Weapon</t>
   </si>
   <si>
-    <t>地雷Landmine</t>
+    <t>陷阱Trap</t>
   </si>
   <si>
     <t>踩中的棋子+1血</t>
@@ -707,6 +731,12 @@
   </si>
   <si>
     <t>旗帜</t>
+  </si>
+  <si>
+    <t>下蛊</t>
+  </si>
+  <si>
+    <t>限定</t>
   </si>
   <si>
     <t>桥Brigde</t>
@@ -721,9 +751,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -734,9 +764,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -744,9 +780,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -766,15 +802,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -795,10 +830,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -813,27 +857,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -863,16 +886,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -887,13 +917,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -911,7 +995,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -923,73 +1055,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1007,31 +1073,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1043,31 +1091,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1078,6 +1108,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1098,9 +1167,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1109,46 +1180,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1170,11 +1202,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1186,10 +1216,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1198,133 +1228,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1692,7 +1722,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C$1:C$1048576"/>
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2023,14 +2053,14 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2049,7 +2079,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2057,7 +2087,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2065,7 +2095,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2073,7 +2103,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2081,7 +2111,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2089,7 +2119,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2097,7 +2127,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2105,7 +2135,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2113,7 +2143,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2121,7 +2151,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -2133,47 +2163,57 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>226</v>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -2195,7 +2235,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -2217,7 +2257,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -2229,20 +2269,23 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2250,152 +2293,152 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>2</v>
       </c>
+      <c r="C4" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="D4" s="3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>3</v>
       </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="D5" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>5</v>
       </c>
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="D7" s="2" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>7</v>
       </c>
+      <c r="C9" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="D9" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>9</v>
       </c>
+      <c r="C11" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="D11" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>10</v>
       </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="D12" s="2" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="2" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2409,20 +2452,20 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2430,157 +2473,154 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>1</v>
       </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="D3" s="2" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>2</v>
       </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="D4" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>3</v>
       </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="D5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>4</v>
       </c>
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="D6" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>53</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2" t="s">
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>7</v>
       </c>
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="D9" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2" t="s">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>9</v>
       </c>
+      <c r="C11" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="D11" s="2" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>10</v>
       </c>
+      <c r="C12" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="D12" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="2" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2594,20 +2634,20 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2615,155 +2655,155 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>1</v>
       </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="D3" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2" t="s">
+      <c r="B4" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>4</v>
       </c>
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="D6" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>5</v>
       </c>
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="D7" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>6</v>
       </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="D8" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>7</v>
       </c>
+      <c r="C9" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="D9" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>8</v>
       </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="D10" s="2" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>9</v>
       </c>
+      <c r="C11" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="D11" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>10</v>
       </c>
+      <c r="B12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="D12" s="2" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2775,23 +2815,23 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2799,147 +2839,147 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>1</v>
       </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="D3" s="2" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>3</v>
       </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="D5" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>4</v>
       </c>
+      <c r="B6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="D6" s="2" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>5</v>
       </c>
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="D7" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>82</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="C9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="C10" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="C11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2" t="s">
-        <v>87</v>
+      <c r="C12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2951,23 +2991,23 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2975,149 +3015,146 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>2</v>
       </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="D4" s="2" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>3</v>
       </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="D5" s="2" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>96</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>6</v>
       </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="D8" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>7</v>
       </c>
+      <c r="C9" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="D9" s="2" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2" t="s">
-        <v>99</v>
+      <c r="C12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -3129,23 +3166,23 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3153,145 +3190,120 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="B3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
-        <v>101</v>
+      <c r="C5" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C6" t="s">
-        <v>101</v>
+        <v>107</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
-        <v>101</v>
+      <c r="C7" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
-        <v>101</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="B8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9"/>
-      <c r="C9" t="s">
-        <v>101</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="C10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>111</v>
-      </c>
-      <c r="C11" t="s">
-        <v>101</v>
+        <v>114</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2" t="s">
-        <v>113</v>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -3303,10 +3315,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D68"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -3316,7 +3328,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3338,10 +3350,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3349,10 +3361,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3363,18 +3375,21 @@
         <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
         <v>4</v>
       </c>
+      <c r="B6" t="s">
+        <v>122</v>
+      </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3382,13 +3397,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3396,10 +3411,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3407,10 +3422,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3421,7 +3436,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3429,13 +3444,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3443,10 +3458,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3454,10 +3469,10 @@
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3468,7 +3483,7 @@
         <v>7</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3476,13 +3491,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3490,13 +3505,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3507,7 +3522,7 @@
         <v>13</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3518,7 +3533,7 @@
         <v>30</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3529,7 +3544,7 @@
         <v>30</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3540,7 +3555,7 @@
         <v>30</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3548,10 +3563,10 @@
         <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -3562,18 +3577,21 @@
         <v>7</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
         <v>21</v>
       </c>
+      <c r="B23" t="s">
+        <v>147</v>
+      </c>
       <c r="C23" s="1" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -3581,10 +3599,10 @@
         <v>22</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -3592,13 +3610,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3606,13 +3624,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -3620,13 +3638,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3637,7 +3655,7 @@
         <v>13</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3645,10 +3663,10 @@
         <v>27</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3656,13 +3674,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -3673,7 +3691,7 @@
         <v>30</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -3681,13 +3699,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -3698,7 +3716,7 @@
         <v>30</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3706,10 +3724,10 @@
         <v>32</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3720,7 +3738,7 @@
         <v>13</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -3731,7 +3749,7 @@
         <v>13</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3739,13 +3757,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -3753,10 +3771,10 @@
         <v>36</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -3764,13 +3782,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -3778,13 +3796,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -3792,13 +3810,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3806,13 +3824,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -3820,13 +3838,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -3834,10 +3852,10 @@
         <v>42</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3845,10 +3863,10 @@
         <v>43</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -3856,13 +3874,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3870,10 +3888,10 @@
         <v>45</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -3881,10 +3899,10 @@
         <v>46</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -3892,13 +3910,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -3906,10 +3924,10 @@
         <v>48</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -3917,10 +3935,10 @@
         <v>49</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -3928,13 +3946,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -3942,13 +3960,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -3956,10 +3974,10 @@
         <v>52</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -3967,10 +3985,10 @@
         <v>53</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -3978,10 +3996,10 @@
         <v>54</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -3989,10 +4007,10 @@
         <v>55</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -4003,7 +4021,7 @@
         <v>13</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -4014,7 +4032,7 @@
         <v>30</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -4025,7 +4043,7 @@
         <v>13</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -4033,10 +4051,10 @@
         <v>59</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -4044,10 +4062,10 @@
         <v>60</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -4058,7 +4076,7 @@
         <v>7</v>
       </c>
       <c r="D63" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -4066,10 +4084,10 @@
         <v>62</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D64" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -4080,7 +4098,7 @@
         <v>13</v>
       </c>
       <c r="D65" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -4088,21 +4106,24 @@
         <v>64</v>
       </c>
       <c r="C66" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="D66" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67">
         <v>65</v>
       </c>
+      <c r="B67" t="s">
+        <v>212</v>
+      </c>
       <c r="C67" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D67" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -4113,7 +4134,18 @@
         <v>13</v>
       </c>
       <c r="D68" t="s">
-        <v>207</v>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="C69" t="s">
+        <v>118</v>
+      </c>
+      <c r="D69" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -4135,7 +4167,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
